--- a/puppeteer-server/assets/GEORGIA_MatchedHotels.xlsx
+++ b/puppeteer-server/assets/GEORGIA_MatchedHotels.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADMIN ВАЖНО\Desktop\cws_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamik\Desktop\cws_1.5.3\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83C86EC-B794-4E84-A8F5-5506AF608967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matched Hotels" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -98,9 +99,6 @@
     <t>tiflis palace 4*</t>
   </si>
   <si>
-    <t>orbeliani residence 3*</t>
-  </si>
-  <si>
     <t>tbilisi inn 4*</t>
   </si>
   <si>
@@ -332,707 +330,710 @@
     <t>borjomi palace health &amp; spa center 4*</t>
   </si>
   <si>
+    <t>Hotel Voyager 3*</t>
+  </si>
+  <si>
+    <t>Metekhi Line 4*</t>
+  </si>
+  <si>
+    <t>OLD WALL 3*</t>
+  </si>
+  <si>
+    <t>BOUTIQUE HOTEL ZEMELI 4*</t>
+  </si>
+  <si>
+    <t>KING DAVID META BUSINESS HOTEL 4*</t>
+  </si>
+  <si>
+    <t>BAZZAR BOUTIQUE HOTEL. 4*</t>
+  </si>
+  <si>
+    <t>Hotel Pushkin 3*</t>
+  </si>
+  <si>
+    <t>Neapol boutique hotel 4*</t>
+  </si>
+  <si>
+    <t>City Inn 4*</t>
+  </si>
+  <si>
+    <t>MAGNOLIA. 4*</t>
+  </si>
+  <si>
+    <t>Urban Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>Brim Hotel 4*</t>
+  </si>
+  <si>
+    <t>Cron Palace Tbilisi Hotel 4*</t>
+  </si>
+  <si>
+    <t>Cron Palace 4*</t>
+  </si>
+  <si>
+    <t>Hotel Astoria Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Bridge Hotel 4*</t>
+  </si>
+  <si>
+    <t>Hotel Zeg 4*</t>
+  </si>
+  <si>
+    <t>AMANTE NARIKALA 4*</t>
+  </si>
+  <si>
+    <t>Amante Narikala 4*</t>
+  </si>
+  <si>
+    <t>Clocks Hotel Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Sandali Metekhi Boutique hotel 4*</t>
+  </si>
+  <si>
+    <t>Folk Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>Tbilisi Marriott Hotel 5*</t>
+  </si>
+  <si>
+    <t>Stamba Hotel 5*</t>
+  </si>
+  <si>
+    <t>Antika Hotel ***</t>
+  </si>
+  <si>
+    <t>Antika Hotel 3*</t>
+  </si>
+  <si>
+    <t>Antika 3*</t>
+  </si>
+  <si>
+    <t>Gino Seaside Tbilisi, Trademark Collection by Wyndham 5*</t>
+  </si>
+  <si>
+    <t>Vista Hotel 3*</t>
+  </si>
+  <si>
+    <t>Piazza Hotel Tbilisi 3*</t>
+  </si>
+  <si>
+    <t>Liva Hotel (Ex. Epic Hotel) 3*</t>
+  </si>
+  <si>
+    <t>Voyager Hotel 3*</t>
+  </si>
+  <si>
+    <t>Metekhi Line Hotel 4*</t>
+  </si>
+  <si>
+    <t>Alliance Hotel 3*</t>
+  </si>
+  <si>
+    <t>Ibis Budget Tbilisi Center 3*</t>
+  </si>
+  <si>
+    <t>Old Wall Hotel 3*</t>
+  </si>
+  <si>
+    <t>Gladius Inn Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>Zemeli Boutique Hotel By Dnt Group 4*</t>
+  </si>
+  <si>
+    <t>Meta Business Hotel By King David 4*</t>
+  </si>
+  <si>
+    <t>Bazzar Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>Heritage Hotel &amp; Suites 4*</t>
+  </si>
+  <si>
+    <t>Neapol Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>Hotel Wine Palace 4*</t>
+  </si>
+  <si>
+    <t>Just Inn Tbilis 4*</t>
+  </si>
+  <si>
+    <t>Tbilisi Inn Hotel 4*</t>
+  </si>
+  <si>
+    <t>City Inn Tbilisi 3*</t>
+  </si>
+  <si>
+    <t>Hotel Magnolia Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Reikartz King Tamar 4*</t>
+  </si>
+  <si>
+    <t>Elea Old Tbilisi Hotel 4*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tbilisi Laerton Hotel 4* </t>
+  </si>
+  <si>
+    <t>Iveria Inn Hotel 4*</t>
+  </si>
+  <si>
+    <t>Biography Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Brim Hotel Tbilisi 4*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cron Palace Tbilisi Hotel 4* </t>
+  </si>
+  <si>
+    <t>Ramada By Wyndham Tbilisi Old City 4*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge Hotel 4* </t>
+  </si>
+  <si>
+    <t>Zeg Hotel 4*</t>
+  </si>
+  <si>
+    <t>Amante Narikala Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>Hotel Address 9d 4*</t>
+  </si>
+  <si>
+    <t>Sandali Metekhi Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>Marjan Plaza Hotel 4*</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Tbilisi Avlabari, An Ihg Hotel 4*</t>
+  </si>
+  <si>
+    <t>Hotel 21 4*</t>
+  </si>
+  <si>
+    <t>Strofi Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>Hilton Garden Inn Tbilisi Chavchavadze 4*</t>
+  </si>
+  <si>
+    <t>Golden Tulip Design Tbilisi Hotel 4*</t>
+  </si>
+  <si>
+    <t>Onyx Hotel 4*</t>
+  </si>
+  <si>
+    <t>Tbilisi Philharmonic By Mercure Hotel 3*</t>
+  </si>
+  <si>
+    <t>Radisson Red Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Courtyard By Marriott Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Rooms Hotel Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Glarros Oldtown 5*</t>
+  </si>
+  <si>
+    <t>Wyndham Grand Tbilisi 5*</t>
+  </si>
+  <si>
+    <t>The Biltmore Tbilisi Hotel 5*</t>
+  </si>
+  <si>
+    <t>Ambassadori New 5*</t>
+  </si>
+  <si>
+    <t>Radisson Blu Iveria Hotel 5*</t>
+  </si>
+  <si>
+    <t>Paragraph Freedom Square, A Luxury Collection Hotel, Tbilisi 5*</t>
+  </si>
+  <si>
+    <t>Gino Seaside Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Old Star 3*</t>
+  </si>
+  <si>
+    <t>Hotel Royal Georgia 3*</t>
+  </si>
+  <si>
+    <t>Hotel Maria 3*</t>
+  </si>
+  <si>
+    <t>Black Sea Star 3*</t>
+  </si>
+  <si>
+    <t>Hotel Genatsvale 3*</t>
+  </si>
+  <si>
+    <t>Ire Palace Hotel 3*</t>
+  </si>
+  <si>
+    <t>Dream Tower 3*</t>
+  </si>
+  <si>
+    <t>Hotel Wave 4*</t>
+  </si>
+  <si>
+    <t>Hotel Kanzler 4*</t>
+  </si>
+  <si>
+    <t>Hotel Lord 3*</t>
+  </si>
+  <si>
+    <t>Aura Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>Orbi Residence Hotel Official 4*</t>
+  </si>
+  <si>
+    <t>Tangerine Apart Hotel 4*</t>
+  </si>
+  <si>
+    <t>White Sails Residential Hotel 4*</t>
+  </si>
+  <si>
+    <t>Orbi City Hotel Official 4*</t>
+  </si>
+  <si>
+    <t>Orbi Beach Tower Hotel Official 4*</t>
+  </si>
+  <si>
+    <t>Orbi Sea Towers Hotel Official 4*</t>
+  </si>
+  <si>
+    <t>New Wave Hotel 4*</t>
+  </si>
+  <si>
+    <t>Batumi View Luxury 4*</t>
+  </si>
+  <si>
+    <t>Piazza Four Colours 3*</t>
+  </si>
+  <si>
+    <t>Boutique Hotel O Galogre 4*</t>
+  </si>
+  <si>
+    <t>Graphic Hotel Batumi 3*</t>
+  </si>
+  <si>
+    <t>Alliance Palace Batumi 4*</t>
+  </si>
+  <si>
+    <t>Hotel Salvador (Ex. Elegance) 4*</t>
+  </si>
+  <si>
+    <t>Hotel Monarch 4*</t>
+  </si>
+  <si>
+    <t>Wyn Residences Batumi 4*</t>
+  </si>
+  <si>
+    <t>Steps Batumi Hotel &amp; Suites 5*</t>
+  </si>
+  <si>
+    <t>Hotel Bloom 4*</t>
+  </si>
+  <si>
+    <t>The Grandeur Hotel 5*</t>
+  </si>
+  <si>
+    <t>Colosseum Marina Hotel 5*</t>
+  </si>
+  <si>
+    <t>Best Western Premier Batumi 5*</t>
+  </si>
+  <si>
+    <t>Tapis Rouge Design Boutique Hotel 4*</t>
+  </si>
+  <si>
+    <t>The Grand Gloria Hotel 5*</t>
+  </si>
+  <si>
+    <t>Hilton Batumi 5*</t>
+  </si>
+  <si>
+    <t>Paragraph Resort &amp; Spa Shekvetili, Autograph Collection 5*</t>
+  </si>
+  <si>
+    <t>Litz Resort 5*</t>
+  </si>
+  <si>
+    <t>Hotel Bel Mare 4*</t>
+  </si>
+  <si>
+    <t>Borjomi Palace Health &amp; Spa Center 4*</t>
+  </si>
+  <si>
+    <t>Borjomi Likani Health &amp; Spa Centre 5*</t>
+  </si>
+  <si>
+    <t>Sairme Hotels &amp; Resorts 4*</t>
+  </si>
+  <si>
+    <t>Park Hotel Tskaltubo - Balneo Resort 4*</t>
+  </si>
+  <si>
+    <t>Legends Tskaltubo Spa Resort 4*</t>
+  </si>
+  <si>
+    <t>Komorebi Bakuriani Resort 4*</t>
+  </si>
+  <si>
+    <t>Bm Plaza Bakuriani 4*</t>
+  </si>
+  <si>
+    <t>Era Palace Kvariati 4*</t>
+  </si>
+  <si>
+    <t>Suatis Resort Kazbegi 4*</t>
+  </si>
+  <si>
+    <t>Liva Hotel 4*</t>
+  </si>
+  <si>
+    <t>Vista Hotel 4*</t>
+  </si>
+  <si>
+    <t>Reikartz King Tamar Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Just Inn Tbilisi 3*</t>
+  </si>
+  <si>
+    <t>Tbilisi Laerton Hotel 3*</t>
+  </si>
+  <si>
+    <t>Iveria Inn Hotel 3*</t>
+  </si>
+  <si>
+    <t>Ramada by Wyndham Tbilisi Old City 4*</t>
+  </si>
+  <si>
+    <t>Golden Tulip Design Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>TBILISI PHILHARMONIC BY MERCURE 4*</t>
+  </si>
+  <si>
+    <t>Radisson RED Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Courtyard by Marriott Tbilisi 4*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pullman Tbilisi Axis Towers 5* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheraton Grand Tbilisi Metechi Palace 5* </t>
+  </si>
+  <si>
+    <t>Sheraton Grand Tbilisi Metechi Palace 5*</t>
+  </si>
+  <si>
+    <t>Radisson Blu Iveria Hotel Tbilisi 5*</t>
+  </si>
+  <si>
+    <t>IRE PALACE 3*</t>
+  </si>
+  <si>
+    <t>Hotel Lords 3*</t>
+  </si>
+  <si>
+    <t>AURA BOUTIQUE HOTEL` 4*</t>
+  </si>
+  <si>
+    <t>Orbi Residence Hotel Official 3*</t>
+  </si>
+  <si>
+    <t>WHITE SAILS RESIDENCE APARTMENT</t>
+  </si>
+  <si>
+    <t>BATUMI VIEW LUXURY. APARTMENT</t>
+  </si>
+  <si>
+    <t>WYN RESIDENCE No Category</t>
+  </si>
+  <si>
+    <t>THE GRANDEUR HOTEL 5*</t>
+  </si>
+  <si>
+    <t>LITZ RESORT 5*</t>
+  </si>
+  <si>
+    <t>SAIRME HOTELS RESORT &amp; SPA 4*</t>
+  </si>
+  <si>
+    <t>PARK HOTEL TSKALTUBO 4*</t>
+  </si>
+  <si>
+    <t>Legends Tskaltubo Spa Resort 3*</t>
+  </si>
+  <si>
+    <t>KOMOREBI BAKURIANI RESORT 3*</t>
+  </si>
+  <si>
+    <t>BM Plaza 3*</t>
+  </si>
+  <si>
+    <t>Liva Hotel 3*</t>
+  </si>
+  <si>
+    <t>Ire Palace 4*</t>
+  </si>
+  <si>
+    <t>Aura Boutique Hotel 3*</t>
+  </si>
+  <si>
+    <t>Paragraph Resort &amp; Spa Shekvetili 5*</t>
+  </si>
+  <si>
+    <t>Bel Mare Boutique 4*</t>
+  </si>
+  <si>
+    <t>Borjomi Likani 5*</t>
+  </si>
+  <si>
+    <t>SUATIS RESORT KAZBEGI 4*</t>
+  </si>
+  <si>
+    <t>Sairme Hotel 4*</t>
+  </si>
+  <si>
+    <t>Komorebi 4*</t>
+  </si>
+  <si>
+    <t>Bm Plaza 4*</t>
+  </si>
+  <si>
+    <t>Piazza Four Colours ****</t>
+  </si>
+  <si>
+    <t>Hotel Old Star **</t>
+  </si>
+  <si>
+    <t>Hotel Royal Georgia ****</t>
+  </si>
+  <si>
+    <t>Hotel Maria ****</t>
+  </si>
+  <si>
+    <t>Black Sea Star Batumi ***</t>
+  </si>
+  <si>
+    <t>Hotel Genatsvale ***</t>
+  </si>
+  <si>
+    <t>Ire Palace ***</t>
+  </si>
+  <si>
+    <t>Dream Tower Batumi ***</t>
+  </si>
+  <si>
+    <t>Hotel Wave ****</t>
+  </si>
+  <si>
+    <t>Hotel Kanzler ****</t>
+  </si>
+  <si>
+    <t>Hotel Lord ***</t>
+  </si>
+  <si>
+    <t>Aura Boutique Hotel ****</t>
+  </si>
+  <si>
+    <t>Orbi Residence Apart Hotel</t>
+  </si>
+  <si>
+    <t>Aparthotel Tangerine ****</t>
+  </si>
+  <si>
+    <t>White Sails Residential Hotel Apart Hotel</t>
+  </si>
+  <si>
+    <t>Orbi City Hotel Apart Hotel</t>
+  </si>
+  <si>
+    <t>Orbi Beach Tower Hotel Apart Hotel</t>
+  </si>
+  <si>
+    <t>Orbi Sea Towers Apart Hotel</t>
+  </si>
+  <si>
+    <t>Graphic Hotel Batumi ****</t>
+  </si>
+  <si>
+    <t>Alliance Palace Batumi *****</t>
+  </si>
+  <si>
+    <t>Hotel Salvador ****</t>
+  </si>
+  <si>
+    <t>Hotel Monarch ****</t>
+  </si>
+  <si>
+    <t>Wyn Residences Batumi ****</t>
+  </si>
+  <si>
+    <t>Hotel Bloom ****</t>
+  </si>
+  <si>
+    <t>The Grandeur Hotel *****</t>
+  </si>
+  <si>
+    <t>Colosseum Marina *****</t>
+  </si>
+  <si>
+    <t>Best Western Premier Batumi *****</t>
+  </si>
+  <si>
+    <t>Tapis Rouge Boutique Hotel *****</t>
+  </si>
+  <si>
+    <t>The Grand Gloria *****</t>
+  </si>
+  <si>
+    <t>Hilton Batumi *****</t>
+  </si>
+  <si>
+    <t>Paragraph Resort &amp; Spa Shekvetili, Autograph Collection *****</t>
+  </si>
+  <si>
+    <t>Hotel Bel Mare ****</t>
+  </si>
+  <si>
+    <t>Orbeliani Residence Hotel 4*</t>
+  </si>
+  <si>
+    <t>Tiflis Palace Hotel 4*</t>
+  </si>
+  <si>
+    <t>Zp Palace Hotel 4*</t>
+  </si>
+  <si>
+    <t>FunSun</t>
+  </si>
+  <si>
+    <t>Piazza Tbilisi 3*</t>
+  </si>
+  <si>
+    <t>Voyager 3*</t>
+  </si>
+  <si>
+    <t>Alliance 3*</t>
+  </si>
+  <si>
+    <t>Gladius Inn Boutique 4*</t>
+  </si>
+  <si>
+    <t>Zemeli Boutique Hotel by DNT Group 4*</t>
+  </si>
+  <si>
+    <t>Tiflis Palace 4*</t>
+  </si>
+  <si>
+    <t>Heritage Hotel and Suites 4*</t>
+  </si>
+  <si>
+    <t>Pushkin Hotel 3*</t>
+  </si>
+  <si>
+    <t>Wine Palace 4*</t>
+  </si>
+  <si>
+    <t>Just Inn 4*</t>
+  </si>
+  <si>
+    <t>Tbilisi Inn 4*</t>
+  </si>
+  <si>
+    <t>Magnolia 4*</t>
+  </si>
+  <si>
+    <t>Zp Palace 4*</t>
+  </si>
+  <si>
+    <t>Iveria Inn 4*</t>
+  </si>
+  <si>
+    <t>Brim 4*</t>
+  </si>
+  <si>
+    <t>Astoria Tbilisi 4*</t>
+  </si>
+  <si>
+    <t>Glarros Old Town Hotel 4*</t>
+  </si>
+  <si>
+    <t>Pullman Tbilisi Axis Towers 5*</t>
+  </si>
+  <si>
+    <t>The Biltmore 5*</t>
+  </si>
+  <si>
+    <t>Old Star 2*</t>
+  </si>
+  <si>
+    <t>Hotel Royal Georgia 4*</t>
+  </si>
+  <si>
+    <t>Hotel Maria 4*</t>
+  </si>
+  <si>
+    <t>Wave 4*</t>
+  </si>
+  <si>
+    <t>Aparthotel Tangerine 4*</t>
+  </si>
+  <si>
+    <t>New Wave Hotel 1 4*</t>
+  </si>
+  <si>
+    <t>Graphic Hotel Batumi 4*</t>
+  </si>
+  <si>
+    <t>Alliance Palace Batumi 5*</t>
+  </si>
+  <si>
+    <t>Hotel Salvador 4*</t>
+  </si>
+  <si>
+    <t>Wyn Residence 4*</t>
+  </si>
+  <si>
+    <t>Borjomi Palace 4*</t>
+  </si>
+  <si>
+    <t>ORBELIANI RESIDENCE 3*</t>
+  </si>
+  <si>
+    <t>Piazza Four Colours 4*</t>
+  </si>
+  <si>
+    <t>Hotel Piazza ***</t>
+  </si>
+  <si>
     <t>borjomi likani 5*</t>
-  </si>
-  <si>
-    <t>Hotel Voyager 3*</t>
-  </si>
-  <si>
-    <t>Metekhi Line 4*</t>
-  </si>
-  <si>
-    <t>OLD WALL 3*</t>
-  </si>
-  <si>
-    <t>BOUTIQUE HOTEL ZEMELI 4*</t>
-  </si>
-  <si>
-    <t>KING DAVID META BUSINESS HOTEL 4*</t>
-  </si>
-  <si>
-    <t>BAZZAR BOUTIQUE HOTEL. 4*</t>
-  </si>
-  <si>
-    <t>Hotel Pushkin 3*</t>
-  </si>
-  <si>
-    <t>Neapol boutique hotel 4*</t>
-  </si>
-  <si>
-    <t>City Inn 4*</t>
-  </si>
-  <si>
-    <t>MAGNOLIA. 4*</t>
-  </si>
-  <si>
-    <t>Urban Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>Brim Hotel 4*</t>
-  </si>
-  <si>
-    <t>Cron Palace Tbilisi Hotel 4*</t>
-  </si>
-  <si>
-    <t>Cron Palace 4*</t>
-  </si>
-  <si>
-    <t>Hotel Astoria Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Bridge Hotel 4*</t>
-  </si>
-  <si>
-    <t>Hotel Zeg 4*</t>
-  </si>
-  <si>
-    <t>AMANTE NARIKALA 4*</t>
-  </si>
-  <si>
-    <t>Amante Narikala 4*</t>
-  </si>
-  <si>
-    <t>Clocks Hotel Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Sandali Metekhi Boutique hotel 4*</t>
-  </si>
-  <si>
-    <t>Folk Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>Tbilisi Marriott Hotel 5*</t>
-  </si>
-  <si>
-    <t>Stamba Hotel 5*</t>
-  </si>
-  <si>
-    <t>Antika Hotel ***</t>
-  </si>
-  <si>
-    <t>Antika Hotel 3*</t>
-  </si>
-  <si>
-    <t>Antika 3*</t>
-  </si>
-  <si>
-    <t>Gino Seaside Tbilisi, Trademark Collection by Wyndham 5*</t>
-  </si>
-  <si>
-    <t>Vista Hotel 3*</t>
-  </si>
-  <si>
-    <t>Piazza Hotel Tbilisi 3*</t>
-  </si>
-  <si>
-    <t>Liva Hotel (Ex. Epic Hotel) 3*</t>
-  </si>
-  <si>
-    <t>Voyager Hotel 3*</t>
-  </si>
-  <si>
-    <t>Metekhi Line Hotel 4*</t>
-  </si>
-  <si>
-    <t>Alliance Hotel 3*</t>
-  </si>
-  <si>
-    <t>Ibis Budget Tbilisi Center 3*</t>
-  </si>
-  <si>
-    <t>Old Wall Hotel 3*</t>
-  </si>
-  <si>
-    <t>Gladius Inn Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>Zemeli Boutique Hotel By Dnt Group 4*</t>
-  </si>
-  <si>
-    <t>Meta Business Hotel By King David 4*</t>
-  </si>
-  <si>
-    <t>Bazzar Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>Heritage Hotel &amp; Suites 4*</t>
-  </si>
-  <si>
-    <t>Neapol Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>Hotel Wine Palace 4*</t>
-  </si>
-  <si>
-    <t>Just Inn Tbilis 4*</t>
-  </si>
-  <si>
-    <t>Tbilisi Inn Hotel 4*</t>
-  </si>
-  <si>
-    <t>City Inn Tbilisi 3*</t>
-  </si>
-  <si>
-    <t>Hotel Magnolia Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Reikartz King Tamar 4*</t>
-  </si>
-  <si>
-    <t>Elea Old Tbilisi Hotel 4*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tbilisi Laerton Hotel 4* </t>
-  </si>
-  <si>
-    <t>Iveria Inn Hotel 4*</t>
-  </si>
-  <si>
-    <t>Biography Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Brim Hotel Tbilisi 4*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cron Palace Tbilisi Hotel 4* </t>
-  </si>
-  <si>
-    <t>Ramada By Wyndham Tbilisi Old City 4*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridge Hotel 4* </t>
-  </si>
-  <si>
-    <t>Zeg Hotel 4*</t>
-  </si>
-  <si>
-    <t>Amante Narikala Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>Hotel Address 9d 4*</t>
-  </si>
-  <si>
-    <t>Sandali Metekhi Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>Marjan Plaza Hotel 4*</t>
-  </si>
-  <si>
-    <t>Holiday Inn Express Tbilisi Avlabari, An Ihg Hotel 4*</t>
-  </si>
-  <si>
-    <t>Hotel 21 4*</t>
-  </si>
-  <si>
-    <t>Strofi Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>Hilton Garden Inn Tbilisi Chavchavadze 4*</t>
-  </si>
-  <si>
-    <t>Golden Tulip Design Tbilisi Hotel 4*</t>
-  </si>
-  <si>
-    <t>Onyx Hotel 4*</t>
-  </si>
-  <si>
-    <t>Tbilisi Philharmonic By Mercure Hotel 3*</t>
-  </si>
-  <si>
-    <t>Radisson Red Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Courtyard By Marriott Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Rooms Hotel Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Glarros Oldtown 5*</t>
-  </si>
-  <si>
-    <t>Wyndham Grand Tbilisi 5*</t>
-  </si>
-  <si>
-    <t>The Biltmore Tbilisi Hotel 5*</t>
-  </si>
-  <si>
-    <t>Ambassadori New 5*</t>
-  </si>
-  <si>
-    <t>Radisson Blu Iveria Hotel 5*</t>
-  </si>
-  <si>
-    <t>Paragraph Freedom Square, A Luxury Collection Hotel, Tbilisi 5*</t>
-  </si>
-  <si>
-    <t>Gino Seaside Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Old Star 3*</t>
-  </si>
-  <si>
-    <t>Hotel Royal Georgia 3*</t>
-  </si>
-  <si>
-    <t>Hotel Maria 3*</t>
-  </si>
-  <si>
-    <t>Black Sea Star 3*</t>
-  </si>
-  <si>
-    <t>Hotel Genatsvale 3*</t>
-  </si>
-  <si>
-    <t>Ire Palace Hotel 3*</t>
-  </si>
-  <si>
-    <t>Dream Tower 3*</t>
-  </si>
-  <si>
-    <t>Hotel Wave 4*</t>
-  </si>
-  <si>
-    <t>Hotel Kanzler 4*</t>
-  </si>
-  <si>
-    <t>Hotel Lord 3*</t>
-  </si>
-  <si>
-    <t>Aura Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>Orbi Residence Hotel Official 4*</t>
-  </si>
-  <si>
-    <t>Tangerine Apart Hotel 4*</t>
-  </si>
-  <si>
-    <t>White Sails Residential Hotel 4*</t>
-  </si>
-  <si>
-    <t>Orbi City Hotel Official 4*</t>
-  </si>
-  <si>
-    <t>Orbi Beach Tower Hotel Official 4*</t>
-  </si>
-  <si>
-    <t>Orbi Sea Towers Hotel Official 4*</t>
-  </si>
-  <si>
-    <t>New Wave Hotel 4*</t>
-  </si>
-  <si>
-    <t>Batumi View Luxury 4*</t>
-  </si>
-  <si>
-    <t>Piazza Four Colours 3*</t>
-  </si>
-  <si>
-    <t>Boutique Hotel O Galogre 4*</t>
-  </si>
-  <si>
-    <t>Graphic Hotel Batumi 3*</t>
-  </si>
-  <si>
-    <t>Alliance Palace Batumi 4*</t>
-  </si>
-  <si>
-    <t>Hotel Salvador (Ex. Elegance) 4*</t>
-  </si>
-  <si>
-    <t>Hotel Monarch 4*</t>
-  </si>
-  <si>
-    <t>Wyn Residences Batumi 4*</t>
-  </si>
-  <si>
-    <t>Steps Batumi Hotel &amp; Suites 5*</t>
-  </si>
-  <si>
-    <t>Hotel Bloom 4*</t>
-  </si>
-  <si>
-    <t>The Grandeur Hotel 5*</t>
-  </si>
-  <si>
-    <t>Colosseum Marina Hotel 5*</t>
-  </si>
-  <si>
-    <t>Best Western Premier Batumi 5*</t>
-  </si>
-  <si>
-    <t>Tapis Rouge Design Boutique Hotel 4*</t>
-  </si>
-  <si>
-    <t>The Grand Gloria Hotel 5*</t>
-  </si>
-  <si>
-    <t>Hilton Batumi 5*</t>
-  </si>
-  <si>
-    <t>Paragraph Resort &amp; Spa Shekvetili, Autograph Collection 5*</t>
-  </si>
-  <si>
-    <t>Litz Resort 5*</t>
-  </si>
-  <si>
-    <t>Hotel Bel Mare 4*</t>
-  </si>
-  <si>
-    <t>Borjomi Palace Health &amp; Spa Center 4*</t>
-  </si>
-  <si>
-    <t>Borjomi Likani Health &amp; Spa Centre 5*</t>
-  </si>
-  <si>
-    <t>Sairme Hotels &amp; Resorts 4*</t>
-  </si>
-  <si>
-    <t>Park Hotel Tskaltubo - Balneo Resort 4*</t>
-  </si>
-  <si>
-    <t>Legends Tskaltubo Spa Resort 4*</t>
-  </si>
-  <si>
-    <t>Komorebi Bakuriani Resort 4*</t>
-  </si>
-  <si>
-    <t>Bm Plaza Bakuriani 4*</t>
-  </si>
-  <si>
-    <t>Era Palace Kvariati 4*</t>
-  </si>
-  <si>
-    <t>Suatis Resort Kazbegi 4*</t>
-  </si>
-  <si>
-    <t>Liva Hotel 4*</t>
-  </si>
-  <si>
-    <t>Vista Hotel 4*</t>
-  </si>
-  <si>
-    <t>Reikartz King Tamar Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Just Inn Tbilisi 3*</t>
-  </si>
-  <si>
-    <t>Tbilisi Laerton Hotel 3*</t>
-  </si>
-  <si>
-    <t>Iveria Inn Hotel 3*</t>
-  </si>
-  <si>
-    <t>Ramada by Wyndham Tbilisi Old City 4*</t>
-  </si>
-  <si>
-    <t>Golden Tulip Design Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>TBILISI PHILHARMONIC BY MERCURE 4*</t>
-  </si>
-  <si>
-    <t>Radisson RED Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Courtyard by Marriott Tbilisi 4*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pullman Tbilisi Axis Towers 5* </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheraton Grand Tbilisi Metechi Palace 5* </t>
-  </si>
-  <si>
-    <t>Sheraton Grand Tbilisi Metechi Palace 5*</t>
-  </si>
-  <si>
-    <t>Radisson Blu Iveria Hotel Tbilisi 5*</t>
-  </si>
-  <si>
-    <t>IRE PALACE 3*</t>
-  </si>
-  <si>
-    <t>Hotel Lords 3*</t>
-  </si>
-  <si>
-    <t>AURA BOUTIQUE HOTEL` 4*</t>
-  </si>
-  <si>
-    <t>Orbi Residence Hotel Official 3*</t>
-  </si>
-  <si>
-    <t>WHITE SAILS RESIDENCE APARTMENT</t>
-  </si>
-  <si>
-    <t>BATUMI VIEW LUXURY. APARTMENT</t>
-  </si>
-  <si>
-    <t>WYN RESIDENCE No Category</t>
-  </si>
-  <si>
-    <t>THE GRANDEUR HOTEL 5*</t>
-  </si>
-  <si>
-    <t>LITZ RESORT 5*</t>
-  </si>
-  <si>
-    <t>SAIRME HOTELS RESORT &amp; SPA 4*</t>
-  </si>
-  <si>
-    <t>PARK HOTEL TSKALTUBO 4*</t>
-  </si>
-  <si>
-    <t>Legends Tskaltubo Spa Resort 3*</t>
-  </si>
-  <si>
-    <t>KOMOREBI BAKURIANI RESORT 3*</t>
-  </si>
-  <si>
-    <t>BM Plaza 3*</t>
-  </si>
-  <si>
-    <t>Liva Hotel 3*</t>
-  </si>
-  <si>
-    <t>Ire Palace 4*</t>
-  </si>
-  <si>
-    <t>Aura Boutique Hotel 3*</t>
-  </si>
-  <si>
-    <t>Paragraph Resort &amp; Spa Shekvetili 5*</t>
-  </si>
-  <si>
-    <t>Bel Mare Boutique 4*</t>
-  </si>
-  <si>
-    <t>Borjomi Likani 5*</t>
-  </si>
-  <si>
-    <t>SUATIS RESORT KAZBEGI 4*</t>
-  </si>
-  <si>
-    <t>Sairme Hotel 4*</t>
-  </si>
-  <si>
-    <t>Komorebi 4*</t>
-  </si>
-  <si>
-    <t>Bm Plaza 4*</t>
-  </si>
-  <si>
-    <t>Piazza Four Colours ****</t>
-  </si>
-  <si>
-    <t>Hotel Old Star **</t>
-  </si>
-  <si>
-    <t>Hotel Royal Georgia ****</t>
-  </si>
-  <si>
-    <t>Hotel Maria ****</t>
-  </si>
-  <si>
-    <t>Black Sea Star Batumi ***</t>
-  </si>
-  <si>
-    <t>Hotel Genatsvale ***</t>
-  </si>
-  <si>
-    <t>Ire Palace ***</t>
-  </si>
-  <si>
-    <t>Dream Tower Batumi ***</t>
-  </si>
-  <si>
-    <t>Hotel Wave ****</t>
-  </si>
-  <si>
-    <t>Hotel Kanzler ****</t>
-  </si>
-  <si>
-    <t>Hotel Lord ***</t>
-  </si>
-  <si>
-    <t>Aura Boutique Hotel ****</t>
-  </si>
-  <si>
-    <t>Orbi Residence Apart Hotel</t>
-  </si>
-  <si>
-    <t>Aparthotel Tangerine ****</t>
-  </si>
-  <si>
-    <t>White Sails Residential Hotel Apart Hotel</t>
-  </si>
-  <si>
-    <t>Orbi City Hotel Apart Hotel</t>
-  </si>
-  <si>
-    <t>Orbi Beach Tower Hotel Apart Hotel</t>
-  </si>
-  <si>
-    <t>Orbi Sea Towers Apart Hotel</t>
-  </si>
-  <si>
-    <t>Graphic Hotel Batumi ****</t>
-  </si>
-  <si>
-    <t>Alliance Palace Batumi *****</t>
-  </si>
-  <si>
-    <t>Hotel Salvador ****</t>
-  </si>
-  <si>
-    <t>Hotel Monarch ****</t>
-  </si>
-  <si>
-    <t>Wyn Residences Batumi ****</t>
-  </si>
-  <si>
-    <t>Hotel Bloom ****</t>
-  </si>
-  <si>
-    <t>The Grandeur Hotel *****</t>
-  </si>
-  <si>
-    <t>Colosseum Marina *****</t>
-  </si>
-  <si>
-    <t>Best Western Premier Batumi *****</t>
-  </si>
-  <si>
-    <t>Tapis Rouge Boutique Hotel *****</t>
-  </si>
-  <si>
-    <t>The Grand Gloria *****</t>
-  </si>
-  <si>
-    <t>Hilton Batumi *****</t>
-  </si>
-  <si>
-    <t>Paragraph Resort &amp; Spa Shekvetili, Autograph Collection *****</t>
-  </si>
-  <si>
-    <t>Hotel Bel Mare ****</t>
-  </si>
-  <si>
-    <t>PIAZZA TBILISI 3*</t>
-  </si>
-  <si>
-    <t>Orbeliani Residence Hotel 4*</t>
-  </si>
-  <si>
-    <t>Tiflis Palace Hotel 4*</t>
-  </si>
-  <si>
-    <t>Zp Palace Hotel 4*</t>
-  </si>
-  <si>
-    <t>FunSun</t>
-  </si>
-  <si>
-    <t>Piazza Tbilisi 3*</t>
-  </si>
-  <si>
-    <t>Voyager 3*</t>
-  </si>
-  <si>
-    <t>Alliance 3*</t>
-  </si>
-  <si>
-    <t>Gladius Inn Boutique 4*</t>
-  </si>
-  <si>
-    <t>Zemeli Boutique Hotel by DNT Group 4*</t>
-  </si>
-  <si>
-    <t>Tiflis Palace 4*</t>
-  </si>
-  <si>
-    <t>Heritage Hotel and Suites 4*</t>
-  </si>
-  <si>
-    <t>Pushkin Hotel 3*</t>
-  </si>
-  <si>
-    <t>Wine Palace 4*</t>
-  </si>
-  <si>
-    <t>Just Inn 4*</t>
-  </si>
-  <si>
-    <t>Tbilisi Inn 4*</t>
-  </si>
-  <si>
-    <t>City Inn Tbilisi (ex. Shine On Rustaveli) 3*</t>
-  </si>
-  <si>
-    <t>Magnolia 4*</t>
-  </si>
-  <si>
-    <t>Zp Palace 4*</t>
-  </si>
-  <si>
-    <t>Iveria Inn 4*</t>
-  </si>
-  <si>
-    <t>Brim 4*</t>
-  </si>
-  <si>
-    <t>Astoria Tbilisi 4*</t>
-  </si>
-  <si>
-    <t>Glarros Old Town Hotel 4*</t>
-  </si>
-  <si>
-    <t>Pullman Tbilisi Axis Towers 5*</t>
-  </si>
-  <si>
-    <t>The Biltmore 5*</t>
-  </si>
-  <si>
-    <t>Old Star 2*</t>
-  </si>
-  <si>
-    <t>Hotel Royal Georgia 4*</t>
-  </si>
-  <si>
-    <t>Hotel Maria 4*</t>
-  </si>
-  <si>
-    <t>Wave 4*</t>
-  </si>
-  <si>
-    <t>Aparthotel Tangerine 4*</t>
-  </si>
-  <si>
-    <t>New Wave Hotel 1 4*</t>
-  </si>
-  <si>
-    <t>Graphic Hotel Batumi 4*</t>
-  </si>
-  <si>
-    <t>Alliance Palace Batumi 5*</t>
-  </si>
-  <si>
-    <t>Hotel Salvador 4*</t>
-  </si>
-  <si>
-    <t>Wyn Residence 4*</t>
-  </si>
-  <si>
-    <t>Borjomi Palace 4*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1043,15 +1044,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1100,36 +1092,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1151,24 +1119,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1257,15 +1224,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>13114</xdr:colOff>
+          <xdr:colOff>8404</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>127552</xdr:rowOff>
+          <xdr:rowOff>31376</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>194089</xdr:colOff>
+          <xdr:colOff>227479</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>105741</xdr:rowOff>
+          <xdr:rowOff>67796</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1307,15 +1274,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>13114</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>552</xdr:rowOff>
+          <xdr:colOff>8404</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>195543</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>194089</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>172002</xdr:rowOff>
+          <xdr:colOff>227479</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1681</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1356,16 +1323,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>22915</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>289615</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>3562350</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>61072</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>203890</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>594415</xdr:rowOff>
+          <xdr:colOff>217954</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>270622</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1406,16 +1373,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>22915</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>689665</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>3562350</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>461122</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>203890</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>861115</xdr:rowOff>
+          <xdr:colOff>217954</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>670672</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1456,16 +1423,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>22915</xdr:colOff>
-          <xdr:row>73</xdr:row>
-          <xdr:rowOff>83102</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>3562350</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>36979</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>203890</xdr:colOff>
-          <xdr:row>74</xdr:row>
-          <xdr:rowOff>61291</xdr:rowOff>
+          <xdr:colOff>217954</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>44824</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1506,16 +1473,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>177613</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>214593</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12326</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1523,6 +1490,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1553,16 +1523,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>145116</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1570,6 +1540,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1600,16 +1573,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>138393</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>146237</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1617,6 +1590,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1647,16 +1623,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>100853</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>108697</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1664,6 +1640,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1694,16 +1673,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>12887</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>20731</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1711,6 +1690,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1741,16 +1723,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>6163</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>42582</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1758,6 +1740,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1788,16 +1773,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>188259</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>22972</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1805,6 +1790,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1835,16 +1823,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>138393</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>79</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>146237</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1852,6 +1840,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1882,16 +1873,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>95810</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>88</xdr:row>
+          <xdr:rowOff>103654</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1899,6 +1890,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1929,16 +1923,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>88</xdr:row>
+          <xdr:rowOff>94129</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>94</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>89</xdr:row>
+          <xdr:rowOff>101974</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1946,6 +1940,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1976,16 +1973,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2875429</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>42022</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>108</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>214593</xdr:colOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>49866</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1993,6 +1990,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2343,13 +2343,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2358,7 +2358,7 @@
     <col min="2" max="2" width="37.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.75" customWidth="1"/>
-    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="48.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -2380,30 +2380,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>129</v>
+        <v>224</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -2412,53 +2412,53 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="10" t="s">
-        <v>301</v>
+      <c r="C4" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="9" t="s">
-        <v>296</v>
+      <c r="E4" s="7" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>254</v>
+        <v>223</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>302</v>
+      <c r="C6" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
@@ -2468,13 +2468,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>303</v>
+      <c r="C8" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
@@ -2507,13 +2507,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>304</v>
+      <c r="C11" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>305</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
@@ -2550,13 +2550,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>140</v>
+        <v>104</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -2565,13 +2565,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>306</v>
+      <c r="C15" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>21</v>
@@ -2580,21 +2580,21 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="10" t="s">
-        <v>307</v>
+      <c r="C16" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
@@ -2602,148 +2602,148 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>308</v>
+        <v>105</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>309</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>310</v>
+        <v>226</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>311</v>
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>312</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>313</v>
+        <v>108</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
@@ -2751,55 +2751,55 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>315</v>
+        <v>228</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>316</v>
+        <v>110</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
@@ -2807,51 +2807,51 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>317</v>
+        <v>113</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
@@ -2859,132 +2859,132 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -2997,41 +2997,41 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>7</v>
@@ -3040,10 +3040,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>
@@ -3051,39 +3051,39 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>171</v>
+      <c r="C53" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
@@ -3092,111 +3092,111 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>173</v>
+        <v>35</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>319</v>
+        <v>52</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="1"/>
@@ -3204,23 +3204,23 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -3228,446 +3228,466 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>321</v>
+        <v>178</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D67" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="C67" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E68" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="C69" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="E70" s="4" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>127</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>125</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4" t="s">
-        <v>255</v>
+        <v>183</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="E74" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="E77" s="4" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E78" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>256</v>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>243</v>
+        <v>191</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>325</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>322</v>
+      </c>
       <c r="D83" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="D84" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>280</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E87" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E88" s="4" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="8" t="s">
+        <v>325</v>
+      </c>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+      <c r="E89" s="4" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D90" s="3"/>
+        <v>201</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E90" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>328</v>
+        <v>202</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="4" t="s">
-        <v>284</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="C93" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>286</v>
@@ -3675,223 +3695,227 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E95" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D96" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E96" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>247</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>91</v>
+        <v>209</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="3" t="s">
-        <v>94</v>
+      <c r="D100" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C101" s="3"/>
-      <c r="D101" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="D101" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="A102" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>293</v>
-      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="D103" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="4" t="s">
-        <v>214</v>
+      <c r="B104" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="A105" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>331</v>
+      </c>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>215</v>
-      </c>
+      <c r="A106" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
       <c r="D106" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>295</v>
-      </c>
+      <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E107" s="3"/>
+      <c r="B107" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E108" s="3"/>
+      <c r="B108" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B109" s="3"/>
+      <c r="A109" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="C109" s="3"/>
       <c r="D109" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E109" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>218</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C110" s="3"/>
       <c r="D110" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>4</v>
@@ -3899,88 +3923,113 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="3" t="s">
-        <v>4</v>
+      <c r="D111" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A112" s="9"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A113" s="12"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A114" s="9"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="9"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="13"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B8 B6 B11 B9 B15 B22 B17 B20 B26 B23" numberStoredAsText="1"/>
+    <ignoredError sqref="B1 B8 B6 B11 B9 B15 B22 B20 B26 B23" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId4" name="Control 18">
+        <control shapeId="1031" r:id="rId4" name="Control 7">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>108</xdr:row>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
@@ -3988,263 +4037,88 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId4" name="Control 18"/>
+        <control shapeId="1031" r:id="rId4" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId6" name="Control 17">
+        <control shapeId="1030" r:id="rId6" name="Control 6">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>457200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>666750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId6" name="Control 17"/>
+        <control shapeId="1030" r:id="rId6" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId7" name="Control 16">
+        <control shapeId="1029" r:id="rId7" name="Control 5">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId7" name="Control 16"/>
+        <control shapeId="1029" r:id="rId7" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId8" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1027" r:id="rId8" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>79</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId8" name="Control 15"/>
+        <control shapeId="1027" r:id="rId8" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId9" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId9" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId10" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId10" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId11" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId11" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId12" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId12" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId13" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId13" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId15" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId15" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId16" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId16" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId17" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId18">
+        <control shapeId="1028" r:id="rId10" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4254,33 +4128,108 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId17" name="Control 4"/>
+        <control shapeId="1028" r:id="rId10" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId19" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId20">
+        <control shapeId="1032" r:id="rId12" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId12" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId14" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId14" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId16" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId16" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId18" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
@@ -4288,82 +4237,182 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId19" name="Control 3"/>
+        <control shapeId="1035" r:id="rId18" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId21" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId22">
+        <control shapeId="1036" r:id="rId19" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>590550</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId21" name="Control 5"/>
+        <control shapeId="1036" r:id="rId19" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId23" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId18">
+        <control shapeId="1037" r:id="rId20" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>685800</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>857250</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId23" name="Control 6"/>
+        <control shapeId="1037" r:id="rId20" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId24" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId18">
+        <control shapeId="1038" r:id="rId22" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId24" name="Control 7"/>
+        <control shapeId="1038" r:id="rId22" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId23" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId23" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId24" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId24" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId25" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>89</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId25" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId26" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>102</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId26" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
